--- a/data/trans_camb/P31_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_1_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,98</t>
+          <t>-15,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,15</t>
+          <t>-15,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>7,63</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,64</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 6,3</t>
+          <t>-35,37; 10,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 21,29</t>
+          <t>-29,37; 20,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 35,53</t>
+          <t>-37,48; 7,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 23,76</t>
+          <t>-11,37; 28,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 16,1</t>
+          <t>-17,77; 20,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 17,45</t>
+          <t>-12,98; 28,79</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-16,79; 13,29</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-16,25; 14,23</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-18,77; 11,85</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,28%</t>
+          <t>-39,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>-13,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>-41,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>24,95%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-7,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-4,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-10,13%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 28,49</t>
+          <t>-75,11; 48,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 80,62</t>
+          <t>-63,83; 89,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 174,56</t>
+          <t>-79,89; 37,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 113,37</t>
+          <t>-29,32; 137,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 60,73</t>
+          <t>-46,6; 102,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 69,33</t>
+          <t>-32,07; 136,55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-41,33; 52,25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-40,56; 54,97</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-42,94; 46,11</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>-18,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-7,32</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 22,66</t>
+          <t>-26,93; 34,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 25,4</t>
+          <t>-31,7; 35,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 26,36</t>
+          <t>-47,03; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 24,36</t>
+          <t>-8,08; 27,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 18,92</t>
+          <t>-12,67; 22,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 20,31</t>
+          <t>-10,87; 26,25</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,56; 24,91</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; 24,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-26,49; 7,47</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>-49,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>25,63%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-22,59%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 94,78</t>
+          <t>-58,38; 154,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 106,2</t>
+          <t>-67,56; 184,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 116,81</t>
+          <t>-85,51; 21,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 107,89</t>
+          <t>-23,18; 131,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 72,85</t>
+          <t>-35,63; 110,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 78,4</t>
+          <t>-31,0; 126,5</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-28,39; 105,18</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-39,86; 112,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-62,47; 30,03</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-18,03</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>13,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,67</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-36,24; -2,12</t>
+          <t>-23,12; 14,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 14,8</t>
+          <t>-12,93; 24,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 17,93</t>
+          <t>-23,56; 14,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 13,39</t>
+          <t>-1,38; 26,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 3,64</t>
+          <t>-11,85; 16,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 10,27</t>
+          <t>-9,09; 21,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 17,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 15,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; 12,97</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,98%</t>
+          <t>-13,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>-7,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,01%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,43; -4,77</t>
+          <t>-44,02; 44,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 37,41</t>
+          <t>-24,87; 75,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 52,19</t>
+          <t>-43,43; 43,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 40,96</t>
+          <t>-3,3; 80,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 9,7</t>
+          <t>-24,45; 50,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 26,11</t>
+          <t>-19,61; 66,81</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-10,25; 50,27</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-14,41; 43,13</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-20,49; 36,35</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,88</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,36</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,52</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,55</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,87</t>
+          <t>12,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9,25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11,9</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7,65</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 24,57</t>
+          <t>-6,76; 18,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,48; 30,47</t>
+          <t>3,31; 31,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 20,97</t>
+          <t>-9,41; 17,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 19,23</t>
+          <t>-1,46; 24,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 19,82</t>
+          <t>-5,3; 21,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,44; 21,12</t>
+          <t>-1,45; 26,31</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 19,11</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 21,13</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 16,98</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>72,35%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>100,93%</t>
+          <t>77,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>43,1%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37,86%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>48,73%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>31,32%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,44; 167,84</t>
+          <t>-26,89; 138,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,44; 201,63</t>
+          <t>8,5; 230,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,28; 96,14</t>
+          <t>-36,86; 128,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 85,81</t>
+          <t>-4,82; 121,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,74; 98,85</t>
+          <t>-16,44; 97,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,92; 103,7</t>
+          <t>-5,37; 122,87</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 94,95</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8,69; 105,92</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 86,43</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,95</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>10,15</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7,36</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7,72</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 19,99</t>
+          <t>-8,67; 21,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 15,3</t>
+          <t>-11,84; 16,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 17,71</t>
+          <t>-15,55; 13,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,85; 29,53</t>
+          <t>-9,39; 25,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 15,7</t>
+          <t>-3,75; 33,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,51; 17,56</t>
+          <t>-7,74; 29,91</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 19,49</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 19,26</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 15,64</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>61,71%</t>
+          <t>39,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>59,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>40,77%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>29,58%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31,02%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>17,85%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 113,63</t>
+          <t>-29,07; 127,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 84,44</t>
+          <t>-38,8; 99,19</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 86,72</t>
+          <t>-47,82; 83,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,25; 138,71</t>
+          <t>-26,33; 160,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 73,32</t>
+          <t>-12,32; 210,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,77; 82,1</t>
+          <t>-28,09; 172,98</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,02; 105,74</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-12,07; 103,47</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-23,41; 81,94</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-14,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-10,27</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-9,1</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-4,61</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 13,69</t>
+          <t>-27,27; 10,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 12,78</t>
+          <t>-23,03; 18,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 12,28</t>
+          <t>-28,34; 10,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 6,53</t>
+          <t>-33,62; 7,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 9,26</t>
+          <t>-35,49; 8,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 6,41</t>
+          <t>-25,23; 21,68</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-25,25; 4,8</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-24,51; 5,87</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-19,78; 14,17</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>-28,06%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-9,58%</t>
+          <t>-33,42%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-22,49%</t>
+          <t>-23,92%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-4,9%</t>
+          <t>-29,05%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-14,14%</t>
+          <t>-5,69%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-25,9%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-22,95%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-11,63%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 86,72</t>
+          <t>-71,73; 64,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 84,68</t>
+          <t>-59,93; 99,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 32,73</t>
+          <t>-76,07; 55,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 15,91</t>
+          <t>-57,75; 19,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 32,29</t>
+          <t>-64,03; 22,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 21,39</t>
+          <t>-44,37; 60,97</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-53,53; 16,18</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-52,63; 17,57</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-44,21; 45,29</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 5,64</t>
+          <t>-9,15; 8,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 12,17</t>
+          <t>-5,27; 13,65</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,59; 13,49</t>
+          <t>-15,59; 1,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,01; 12,21</t>
+          <t>0,72; 14,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,77</t>
+          <t>-4,01; 10,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,16; 9,29</t>
+          <t>0,52; 14,89</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 9,07</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 8,8</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 5,94</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>-21,86%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 20,11</t>
+          <t>-25,55; 31,08</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 43,09</t>
+          <t>-15,43; 49,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>7,57; 44,85</t>
+          <t>-42,78; 4,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,1; 40,43</t>
+          <t>1,96; 48,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 25,74</t>
+          <t>-10,18; 33,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,27; 30,67</t>
+          <t>1,26; 48,98</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 30,53</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 29,93</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; 19,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
